--- a/docs/Client Data.xlsx
+++ b/docs/Client Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyswitzerland-my.sharepoint.com/personal/garrett_wisthoff1_ch_ey_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Desktop/swisshack/hackvisor/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{FBC710C1-45B5-4035-816A-8B6E91E9659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58233026-9EA7-4B10-A79C-86676C47F3B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A868FB-544C-F746-8D62-72A5DEAF66C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3639A83-4E65-44C5-B2FE-18E59AE5E4CF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{C3639A83-4E65-44C5-B2FE-18E59AE5E4CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Client Data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -824,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1167,18 +1166,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EC2D58-7286-4FB5-9411-ED7810645C23}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1225,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1237,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +1249,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1261,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1273,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1285,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1320,7 +1319,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1332,7 +1331,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1344,7 +1343,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1356,7 +1355,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1367,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1379,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1392,7 +1391,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -1404,7 +1403,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1416,7 +1415,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1428,7 +1427,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -1440,7 +1439,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1452,7 +1451,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1464,7 +1463,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -1476,7 +1475,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -1488,7 +1487,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1503,7 +1502,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1518,7 +1517,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1533,7 +1532,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1551,7 +1550,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1563,7 +1562,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1575,7 +1574,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1587,7 +1586,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1599,7 +1598,7 @@
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1611,66 +1610,66 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F41" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="3"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
         <v>13</v>
       </c>
@@ -1691,13 +1690,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1739,19 +1738,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECAE64C-8B94-46CD-BB2B-1FEAC2DCDA2C}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="96.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1780,7 +1779,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1795,7 +1794,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1810,7 +1809,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -1825,7 +1824,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -1840,7 +1839,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -1855,7 +1854,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -1870,7 +1869,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -1885,7 +1884,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -1900,7 +1899,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -1915,7 +1914,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1931,7 +1930,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -1947,7 +1946,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -1963,7 +1962,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -1979,7 +1978,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -1995,7 +1994,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -2011,7 +2010,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -2027,7 +2026,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2043,7 +2042,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -2058,7 +2057,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -2073,7 +2072,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -2088,7 +2087,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -2103,154 +2102,154 @@
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E53" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E54" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E58" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E61" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E64" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E67" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E68" s="8" t="s">
         <v>114</v>
       </c>
